--- a/inputs/backup/Containers.xlsx
+++ b/inputs/backup/Containers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Bales</t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
   <si>
     <t>Gross</t>
@@ -392,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,13 +441,27 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/backup/Containers.xlsx
+++ b/inputs/backup/Containers.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
@@ -28,6 +34,9 @@
     <t>Bales</t>
   </si>
   <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -35,6 +44,9 @@
   </si>
   <si>
     <t>Tara</t>
+  </si>
+  <si>
+    <t>46.00</t>
   </si>
   <si>
     <t>VGM</t>
@@ -395,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +444,165 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
